--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Thbs1-Ptprj.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Thbs1-Ptprj.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H2">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I2">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J2">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.651313400344062</v>
+        <v>0.8690176666666667</v>
       </c>
       <c r="N2">
-        <v>0.651313400344062</v>
+        <v>2.607053</v>
       </c>
       <c r="O2">
-        <v>0.003635889392379604</v>
+        <v>0.004684547990100867</v>
       </c>
       <c r="P2">
-        <v>0.003635889392379604</v>
+        <v>0.004684547990100866</v>
       </c>
       <c r="Q2">
-        <v>3.521408434895866</v>
+        <v>13.19949166897411</v>
       </c>
       <c r="R2">
-        <v>3.521408434895866</v>
+        <v>118.795425020767</v>
       </c>
       <c r="S2">
-        <v>2.270637678985311E-05</v>
+        <v>6.216534223256062E-05</v>
       </c>
       <c r="T2">
-        <v>2.270637678985311E-05</v>
+        <v>6.216534223256059E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H3">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I3">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J3">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.63723659635571</v>
+        <v>7.730875666666667</v>
       </c>
       <c r="N3">
-        <v>7.63723659635571</v>
+        <v>23.192627</v>
       </c>
       <c r="O3">
-        <v>0.04263407986556744</v>
+        <v>0.04167424835552215</v>
       </c>
       <c r="P3">
-        <v>0.04263407986556744</v>
+        <v>0.04167424835552214</v>
       </c>
       <c r="Q3">
-        <v>41.29168746642629</v>
+        <v>117.4241133065281</v>
       </c>
       <c r="R3">
-        <v>41.29168746642629</v>
+        <v>1056.817019758753</v>
       </c>
       <c r="S3">
-        <v>0.00026625273132489</v>
+        <v>0.000553029644862274</v>
       </c>
       <c r="T3">
-        <v>0.00026625273132489</v>
+        <v>0.0005530296448622736</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H4">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I4">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J4">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.8490902464572</v>
+        <v>67.01802199999999</v>
       </c>
       <c r="N4">
-        <v>61.8490902464572</v>
+        <v>201.054066</v>
       </c>
       <c r="O4">
-        <v>0.345266120790129</v>
+        <v>0.3612689963655924</v>
       </c>
       <c r="P4">
-        <v>0.345266120790129</v>
+        <v>0.3612689963655923</v>
       </c>
       <c r="Q4">
-        <v>334.39494407678</v>
+        <v>1017.935373458219</v>
       </c>
       <c r="R4">
-        <v>334.39494407678</v>
+        <v>9161.418361123973</v>
       </c>
       <c r="S4">
-        <v>0.002156210430345539</v>
+        <v>0.004794146808729177</v>
       </c>
       <c r="T4">
-        <v>0.002156210430345539</v>
+        <v>0.004794146808729176</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H5">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I5">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J5">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.6181956033695</v>
+        <v>79.20011933333333</v>
       </c>
       <c r="N5">
-        <v>78.6181956033695</v>
+        <v>237.600358</v>
       </c>
       <c r="O5">
-        <v>0.4388779093003687</v>
+        <v>0.4269381096265194</v>
       </c>
       <c r="P5">
-        <v>0.4388779093003687</v>
+        <v>0.4269381096265193</v>
       </c>
       <c r="Q5">
-        <v>425.0592372086183</v>
+        <v>1202.969002151573</v>
       </c>
       <c r="R5">
-        <v>425.0592372086183</v>
+        <v>10826.72101936416</v>
       </c>
       <c r="S5">
-        <v>0.002740822422762173</v>
+        <v>0.005665595432716145</v>
       </c>
       <c r="T5">
-        <v>0.002740822422762173</v>
+        <v>0.005665595432716141</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H6">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I6">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J6">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.9218072484062</v>
+        <v>27.17078333333333</v>
       </c>
       <c r="N6">
-        <v>26.9218072484062</v>
+        <v>81.51235</v>
       </c>
       <c r="O6">
-        <v>0.1502881920538714</v>
+        <v>0.1464674923604922</v>
       </c>
       <c r="P6">
-        <v>0.1502881920538714</v>
+        <v>0.1464674923604922</v>
       </c>
       <c r="Q6">
-        <v>145.5561624819909</v>
+        <v>412.6964755774055</v>
       </c>
       <c r="R6">
-        <v>145.5561624819909</v>
+        <v>3714.26828019665</v>
       </c>
       <c r="S6">
-        <v>0.0009385599911243755</v>
+        <v>0.001943667096115907</v>
       </c>
       <c r="T6">
-        <v>0.0009385599911243755</v>
+        <v>0.001943667096115906</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H7">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I7">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J7">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.45690420706673</v>
+        <v>3.518443</v>
       </c>
       <c r="N7">
-        <v>3.45690420706673</v>
+        <v>10.555329</v>
       </c>
       <c r="O7">
-        <v>0.01929780859768386</v>
+        <v>0.01896660530177307</v>
       </c>
       <c r="P7">
-        <v>0.01929780859768386</v>
+        <v>0.01896660530177307</v>
       </c>
       <c r="Q7">
-        <v>18.69019066237729</v>
+        <v>53.44155918532567</v>
       </c>
       <c r="R7">
-        <v>18.69019066237729</v>
+        <v>480.974032667931</v>
       </c>
       <c r="S7">
-        <v>0.0001205161285037595</v>
+        <v>0.0002516924817647635</v>
       </c>
       <c r="T7">
-        <v>0.0001205161285037595</v>
+        <v>0.0002516924817647634</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H8">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I8">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J8">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.651313400344062</v>
+        <v>0.8690176666666667</v>
       </c>
       <c r="N8">
-        <v>0.651313400344062</v>
+        <v>2.607053</v>
       </c>
       <c r="O8">
-        <v>0.003635889392379604</v>
+        <v>0.004684547990100867</v>
       </c>
       <c r="P8">
-        <v>0.003635889392379604</v>
+        <v>0.004684547990100866</v>
       </c>
       <c r="Q8">
-        <v>60.87892195423706</v>
+        <v>82.99391877886556</v>
       </c>
       <c r="R8">
-        <v>60.87892195423706</v>
+        <v>746.9452690097901</v>
       </c>
       <c r="S8">
-        <v>0.0003925530838043345</v>
+        <v>0.0003908745498310929</v>
       </c>
       <c r="T8">
-        <v>0.0003925530838043345</v>
+        <v>0.0003908745498310928</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H9">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I9">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J9">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.63723659635571</v>
+        <v>7.730875666666667</v>
       </c>
       <c r="N9">
-        <v>7.63723659635571</v>
+        <v>23.192627</v>
       </c>
       <c r="O9">
-        <v>0.04263407986556744</v>
+        <v>0.04167424835552215</v>
       </c>
       <c r="P9">
-        <v>0.04263407986556744</v>
+        <v>0.04167424835552214</v>
       </c>
       <c r="Q9">
-        <v>713.8602252770636</v>
+        <v>738.3229268858456</v>
       </c>
       <c r="R9">
-        <v>713.8602252770636</v>
+        <v>6644.906341972611</v>
       </c>
       <c r="S9">
-        <v>0.00460303868469315</v>
+        <v>0.003477262502152987</v>
       </c>
       <c r="T9">
-        <v>0.00460303868469315</v>
+        <v>0.003477262502152986</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H10">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I10">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J10">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>61.8490902464572</v>
+        <v>67.01802199999999</v>
       </c>
       <c r="N10">
-        <v>61.8490902464572</v>
+        <v>201.054066</v>
       </c>
       <c r="O10">
-        <v>0.345266120790129</v>
+        <v>0.3612689963655924</v>
       </c>
       <c r="P10">
-        <v>0.345266120790129</v>
+        <v>0.3612689963655923</v>
       </c>
       <c r="Q10">
-        <v>5781.096989660549</v>
+        <v>6400.431760982486</v>
       </c>
       <c r="R10">
-        <v>5781.096989660549</v>
+        <v>57603.88584884237</v>
       </c>
       <c r="S10">
-        <v>0.03727706368994364</v>
+        <v>0.03014396620991627</v>
       </c>
       <c r="T10">
-        <v>0.03727706368994364</v>
+        <v>0.03014396620991626</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H11">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I11">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J11">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.6181956033695</v>
+        <v>79.20011933333333</v>
       </c>
       <c r="N11">
-        <v>78.6181956033695</v>
+        <v>237.600358</v>
       </c>
       <c r="O11">
-        <v>0.4388779093003687</v>
+        <v>0.4269381096265194</v>
       </c>
       <c r="P11">
-        <v>0.4388779093003687</v>
+        <v>0.4269381096265193</v>
       </c>
       <c r="Q11">
-        <v>7348.522219552258</v>
+        <v>7563.860348708438</v>
       </c>
       <c r="R11">
-        <v>7348.522219552258</v>
+        <v>68074.74313837594</v>
       </c>
       <c r="S11">
-        <v>0.04738397077494805</v>
+        <v>0.03562333906251868</v>
       </c>
       <c r="T11">
-        <v>0.04738397077494805</v>
+        <v>0.03562333906251867</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H12">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I12">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J12">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.9218072484062</v>
+        <v>27.17078333333333</v>
       </c>
       <c r="N12">
-        <v>26.9218072484062</v>
+        <v>81.51235</v>
       </c>
       <c r="O12">
-        <v>0.1502881920538714</v>
+        <v>0.1464674923604922</v>
       </c>
       <c r="P12">
-        <v>0.1502881920538714</v>
+        <v>0.1464674923604922</v>
       </c>
       <c r="Q12">
-        <v>2516.408539233085</v>
+        <v>2594.895215162278</v>
       </c>
       <c r="R12">
-        <v>2516.408539233085</v>
+        <v>23354.0569364605</v>
       </c>
       <c r="S12">
-        <v>0.01622604179702886</v>
+        <v>0.01222111829407553</v>
       </c>
       <c r="T12">
-        <v>0.01622604179702886</v>
+        <v>0.01222111829407552</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H13">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I13">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J13">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.45690420706673</v>
+        <v>3.518443</v>
       </c>
       <c r="N13">
-        <v>3.45690420706673</v>
+        <v>10.555329</v>
       </c>
       <c r="O13">
-        <v>0.01929780859768386</v>
+        <v>0.01896660530177307</v>
       </c>
       <c r="P13">
-        <v>0.01929780859768386</v>
+        <v>0.01896660530177307</v>
       </c>
       <c r="Q13">
-        <v>323.1203308792907</v>
+        <v>336.0223661391634</v>
       </c>
       <c r="R13">
-        <v>323.1203308792907</v>
+        <v>3024.20129525247</v>
       </c>
       <c r="S13">
-        <v>0.002083510651221617</v>
+        <v>0.001582556806936445</v>
       </c>
       <c r="T13">
-        <v>0.002083510651221617</v>
+        <v>0.001582556806936444</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H14">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I14">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J14">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.651313400344062</v>
+        <v>0.8690176666666667</v>
       </c>
       <c r="N14">
-        <v>0.651313400344062</v>
+        <v>2.607053</v>
       </c>
       <c r="O14">
-        <v>0.003635889392379604</v>
+        <v>0.004684547990100867</v>
       </c>
       <c r="P14">
-        <v>0.003635889392379604</v>
+        <v>0.004684547990100866</v>
       </c>
       <c r="Q14">
-        <v>128.1820048300516</v>
+        <v>349.4244531618335</v>
       </c>
       <c r="R14">
-        <v>128.1820048300516</v>
+        <v>3144.820078456502</v>
       </c>
       <c r="S14">
-        <v>0.0008265297687446453</v>
+        <v>0.001645676307845196</v>
       </c>
       <c r="T14">
-        <v>0.0008265297687446453</v>
+        <v>0.001645676307845195</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H15">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I15">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J15">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.63723659635571</v>
+        <v>7.730875666666667</v>
       </c>
       <c r="N15">
-        <v>7.63723659635571</v>
+        <v>23.192627</v>
       </c>
       <c r="O15">
-        <v>0.04263407986556744</v>
+        <v>0.04167424835552215</v>
       </c>
       <c r="P15">
-        <v>0.04263407986556744</v>
+        <v>0.04167424835552214</v>
       </c>
       <c r="Q15">
-        <v>1503.049526948428</v>
+        <v>3108.517934564957</v>
       </c>
       <c r="R15">
-        <v>1503.049526948428</v>
+        <v>27976.66141108462</v>
       </c>
       <c r="S15">
-        <v>0.009691806424525344</v>
+        <v>0.01464011539872446</v>
       </c>
       <c r="T15">
-        <v>0.009691806424525344</v>
+        <v>0.01464011539872445</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H16">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I16">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J16">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.8490902464572</v>
+        <v>67.01802199999999</v>
       </c>
       <c r="N16">
-        <v>61.8490902464572</v>
+        <v>201.054066</v>
       </c>
       <c r="O16">
-        <v>0.345266120790129</v>
+        <v>0.3612689963655924</v>
       </c>
       <c r="P16">
-        <v>0.345266120790129</v>
+        <v>0.3612689963655923</v>
       </c>
       <c r="Q16">
-        <v>12172.23594742204</v>
+        <v>26947.36434894618</v>
       </c>
       <c r="R16">
-        <v>12172.23594742204</v>
+        <v>242526.2791405156</v>
       </c>
       <c r="S16">
-        <v>0.07848773605988503</v>
+        <v>0.1269133818960121</v>
       </c>
       <c r="T16">
-        <v>0.07848773605988503</v>
+        <v>0.1269133818960121</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H17">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I17">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J17">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>78.6181956033695</v>
+        <v>79.20011933333333</v>
       </c>
       <c r="N17">
-        <v>78.6181956033695</v>
+        <v>237.600358</v>
       </c>
       <c r="O17">
-        <v>0.4388779093003687</v>
+        <v>0.4269381096265194</v>
       </c>
       <c r="P17">
-        <v>0.4388779093003687</v>
+        <v>0.4269381096265193</v>
       </c>
       <c r="Q17">
-        <v>15472.48670645738</v>
+        <v>31845.67984049648</v>
       </c>
       <c r="R17">
-        <v>15472.48670645738</v>
+        <v>286611.1185644683</v>
       </c>
       <c r="S17">
-        <v>0.09976806710386718</v>
+        <v>0.1499828656709843</v>
       </c>
       <c r="T17">
-        <v>0.09976806710386718</v>
+        <v>0.1499828656709842</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H18">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I18">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J18">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>26.9218072484062</v>
+        <v>27.17078333333333</v>
       </c>
       <c r="N18">
-        <v>26.9218072484062</v>
+        <v>81.51235</v>
       </c>
       <c r="O18">
-        <v>0.1502881920538714</v>
+        <v>0.1464674923604922</v>
       </c>
       <c r="P18">
-        <v>0.1502881920538714</v>
+        <v>0.1464674923604922</v>
       </c>
       <c r="Q18">
-        <v>5298.357480325077</v>
+        <v>10925.13590045388</v>
       </c>
       <c r="R18">
-        <v>5298.357480325077</v>
+        <v>98326.22310408489</v>
       </c>
       <c r="S18">
-        <v>0.03416431338194247</v>
+        <v>0.0514538611956816</v>
       </c>
       <c r="T18">
-        <v>0.03416431338194247</v>
+        <v>0.05145386119568158</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H19">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I19">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J19">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.45690420706673</v>
+        <v>3.518443</v>
       </c>
       <c r="N19">
-        <v>3.45690420706673</v>
+        <v>10.555329</v>
       </c>
       <c r="O19">
-        <v>0.01929780859768386</v>
+        <v>0.01896660530177307</v>
       </c>
       <c r="P19">
-        <v>0.01929780859768386</v>
+        <v>0.01896660530177307</v>
       </c>
       <c r="Q19">
-        <v>680.3374712284057</v>
+        <v>1414.735359721587</v>
       </c>
       <c r="R19">
-        <v>680.3374712284057</v>
+        <v>12732.61823749429</v>
       </c>
       <c r="S19">
-        <v>0.0043868807755681</v>
+        <v>0.006662946574853414</v>
       </c>
       <c r="T19">
-        <v>0.0043868807755681</v>
+        <v>0.006662946574853411</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H20">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I20">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J20">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.651313400344062</v>
+        <v>0.8690176666666667</v>
       </c>
       <c r="N20">
-        <v>0.651313400344062</v>
+        <v>2.607053</v>
       </c>
       <c r="O20">
-        <v>0.003635889392379604</v>
+        <v>0.004684547990100867</v>
       </c>
       <c r="P20">
-        <v>0.003635889392379604</v>
+        <v>0.004684547990100866</v>
       </c>
       <c r="Q20">
-        <v>109.4701038309836</v>
+        <v>167.0358893750668</v>
       </c>
       <c r="R20">
-        <v>109.4701038309836</v>
+        <v>1503.323004375601</v>
       </c>
       <c r="S20">
-        <v>0.0007058736499233044</v>
+        <v>0.0007866850851937553</v>
       </c>
       <c r="T20">
-        <v>0.0007058736499233044</v>
+        <v>0.0007866850851937552</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H21">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I21">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J21">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.63723659635571</v>
+        <v>7.730875666666667</v>
       </c>
       <c r="N21">
-        <v>7.63723659635571</v>
+        <v>23.192627</v>
       </c>
       <c r="O21">
-        <v>0.04263407986556744</v>
+        <v>0.04167424835552215</v>
       </c>
       <c r="P21">
-        <v>0.04263407986556744</v>
+        <v>0.04167424835552214</v>
       </c>
       <c r="Q21">
-        <v>1283.635624176007</v>
+        <v>1485.969436712329</v>
       </c>
       <c r="R21">
-        <v>1283.635624176007</v>
+        <v>13373.72493041096</v>
       </c>
       <c r="S21">
-        <v>0.00827700469351565</v>
+        <v>0.00699843606837375</v>
       </c>
       <c r="T21">
-        <v>0.00827700469351565</v>
+        <v>0.006998436068373749</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H22">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I22">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J22">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>61.8490902464572</v>
+        <v>67.01802199999999</v>
       </c>
       <c r="N22">
-        <v>61.8490902464572</v>
+        <v>201.054066</v>
       </c>
       <c r="O22">
-        <v>0.345266120790129</v>
+        <v>0.3612689963655924</v>
       </c>
       <c r="P22">
-        <v>0.345266120790129</v>
+        <v>0.3612689963655923</v>
       </c>
       <c r="Q22">
-        <v>10395.34320582826</v>
+        <v>12881.68852983939</v>
       </c>
       <c r="R22">
-        <v>10395.34320582826</v>
+        <v>115935.1967685545</v>
       </c>
       <c r="S22">
-        <v>0.06703016252028601</v>
+        <v>0.06066859209987709</v>
       </c>
       <c r="T22">
-        <v>0.06703016252028601</v>
+        <v>0.06066859209987709</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H23">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I23">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J23">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>78.6181956033695</v>
+        <v>79.20011933333333</v>
       </c>
       <c r="N23">
-        <v>78.6181956033695</v>
+        <v>237.600358</v>
       </c>
       <c r="O23">
-        <v>0.4388779093003687</v>
+        <v>0.4269381096265194</v>
       </c>
       <c r="P23">
-        <v>0.4388779093003687</v>
+        <v>0.4269381096265193</v>
       </c>
       <c r="Q23">
-        <v>13213.82614139224</v>
+        <v>15223.23754613514</v>
       </c>
       <c r="R23">
-        <v>13213.82614139224</v>
+        <v>137009.1379152163</v>
       </c>
       <c r="S23">
-        <v>0.08520400877921327</v>
+        <v>0.07169653162988891</v>
       </c>
       <c r="T23">
-        <v>0.08520400877921327</v>
+        <v>0.07169653162988888</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H24">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I24">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J24">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>26.9218072484062</v>
+        <v>27.17078333333333</v>
       </c>
       <c r="N24">
-        <v>26.9218072484062</v>
+        <v>81.51235</v>
       </c>
       <c r="O24">
-        <v>0.1502881920538714</v>
+        <v>0.1464674923604922</v>
       </c>
       <c r="P24">
-        <v>0.1502881920538714</v>
+        <v>0.1464674923604922</v>
       </c>
       <c r="Q24">
-        <v>4524.907722217759</v>
+        <v>5222.558911269439</v>
       </c>
       <c r="R24">
-        <v>4524.907722217759</v>
+        <v>47003.03020142495</v>
       </c>
       <c r="S24">
-        <v>0.02917703571725293</v>
+        <v>0.02459656554895247</v>
       </c>
       <c r="T24">
-        <v>0.02917703571725293</v>
+        <v>0.02459656554895247</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H25">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I25">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J25">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.45690420706673</v>
+        <v>3.518443</v>
       </c>
       <c r="N25">
-        <v>3.45690420706673</v>
+        <v>10.555329</v>
       </c>
       <c r="O25">
-        <v>0.01929780859768386</v>
+        <v>0.01896660530177307</v>
       </c>
       <c r="P25">
-        <v>0.01929780859768386</v>
+        <v>0.01896660530177307</v>
       </c>
       <c r="Q25">
-        <v>581.0223807485785</v>
+        <v>676.2880413867437</v>
       </c>
       <c r="R25">
-        <v>581.0223807485785</v>
+        <v>6086.592372480693</v>
       </c>
       <c r="S25">
-        <v>0.003746487618385242</v>
+        <v>0.003185098229154956</v>
       </c>
       <c r="T25">
-        <v>0.003746487618385242</v>
+        <v>0.003185098229154956</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H26">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I26">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J26">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.651313400344062</v>
+        <v>0.8690176666666667</v>
       </c>
       <c r="N26">
-        <v>0.651313400344062</v>
+        <v>2.607053</v>
       </c>
       <c r="O26">
-        <v>0.003635889392379604</v>
+        <v>0.004684547990100867</v>
       </c>
       <c r="P26">
-        <v>0.003635889392379604</v>
+        <v>0.004684547990100866</v>
       </c>
       <c r="Q26">
-        <v>238.3626857858577</v>
+        <v>349.7310171034487</v>
       </c>
       <c r="R26">
-        <v>238.3626857858577</v>
+        <v>3147.579153931038</v>
       </c>
       <c r="S26">
-        <v>0.001536985287608395</v>
+        <v>0.001647120124987901</v>
       </c>
       <c r="T26">
-        <v>0.001536985287608395</v>
+        <v>0.001647120124987901</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H27">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I27">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J27">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>7.63723659635571</v>
+        <v>7.730875666666667</v>
       </c>
       <c r="N27">
-        <v>7.63723659635571</v>
+        <v>23.192627</v>
       </c>
       <c r="O27">
-        <v>0.04263407986556744</v>
+        <v>0.04167424835552215</v>
       </c>
       <c r="P27">
-        <v>0.04263407986556744</v>
+        <v>0.04167424835552214</v>
       </c>
       <c r="Q27">
-        <v>2795.017308300014</v>
+        <v>3111.245160727804</v>
       </c>
       <c r="R27">
-        <v>2795.017308300014</v>
+        <v>28001.20644655024</v>
       </c>
       <c r="S27">
-        <v>0.01802253766064427</v>
+        <v>0.0146529597530383</v>
       </c>
       <c r="T27">
-        <v>0.01802253766064427</v>
+        <v>0.0146529597530383</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H28">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I28">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J28">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>61.8490902464572</v>
+        <v>67.01802199999999</v>
       </c>
       <c r="N28">
-        <v>61.8490902464572</v>
+        <v>201.054066</v>
       </c>
       <c r="O28">
-        <v>0.345266120790129</v>
+        <v>0.3612689963655924</v>
       </c>
       <c r="P28">
-        <v>0.345266120790129</v>
+        <v>0.3612689963655923</v>
       </c>
       <c r="Q28">
-        <v>22635.05596041717</v>
+        <v>26971.0063412458</v>
       </c>
       <c r="R28">
-        <v>22635.05596041717</v>
+        <v>242739.0570712122</v>
       </c>
       <c r="S28">
-        <v>0.1459529954558768</v>
+        <v>0.1270247280432142</v>
       </c>
       <c r="T28">
-        <v>0.1459529954558768</v>
+        <v>0.1270247280432141</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H29">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I29">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J29">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>78.6181956033695</v>
+        <v>79.20011933333333</v>
       </c>
       <c r="N29">
-        <v>78.6181956033695</v>
+        <v>237.600358</v>
       </c>
       <c r="O29">
-        <v>0.4388779093003687</v>
+        <v>0.4269381096265194</v>
       </c>
       <c r="P29">
-        <v>0.4388779093003687</v>
+        <v>0.4269381096265193</v>
       </c>
       <c r="Q29">
-        <v>28772.08459976055</v>
+        <v>31873.61931939378</v>
       </c>
       <c r="R29">
-        <v>28772.08459976055</v>
+        <v>286862.5738745441</v>
       </c>
       <c r="S29">
-        <v>0.1855251403039854</v>
+        <v>0.1501144515919431</v>
       </c>
       <c r="T29">
-        <v>0.1855251403039854</v>
+        <v>0.150114451591943</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H30">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I30">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J30">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>26.9218072484062</v>
+        <v>27.17078333333333</v>
       </c>
       <c r="N30">
-        <v>26.9218072484062</v>
+        <v>81.51235</v>
       </c>
       <c r="O30">
-        <v>0.1502881920538714</v>
+        <v>0.1464674923604922</v>
       </c>
       <c r="P30">
-        <v>0.1502881920538714</v>
+        <v>0.1464674923604922</v>
       </c>
       <c r="Q30">
-        <v>9852.636654718535</v>
+        <v>10934.72095580423</v>
       </c>
       <c r="R30">
-        <v>9852.636654718535</v>
+        <v>98412.4886022381</v>
       </c>
       <c r="S30">
-        <v>0.06353073901868263</v>
+        <v>0.05149900371034172</v>
       </c>
       <c r="T30">
-        <v>0.06353073901868263</v>
+        <v>0.05149900371034171</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H31">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I31">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J31">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>3.45690420706673</v>
+        <v>3.518443</v>
       </c>
       <c r="N31">
-        <v>3.45690420706673</v>
+        <v>10.555329</v>
       </c>
       <c r="O31">
-        <v>0.01929780859768386</v>
+        <v>0.01896660530177307</v>
       </c>
       <c r="P31">
-        <v>0.01929780859768386</v>
+        <v>0.01896660530177307</v>
       </c>
       <c r="Q31">
-        <v>1265.131303709663</v>
+        <v>1415.976563204326</v>
       </c>
       <c r="R31">
-        <v>1265.131303709663</v>
+        <v>12743.78906883893</v>
       </c>
       <c r="S31">
-        <v>0.008157687073728832</v>
+        <v>0.00666879224233969</v>
       </c>
       <c r="T31">
-        <v>0.008157687073728832</v>
+        <v>0.006668792242339688</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>36.012123771195</v>
+        <v>37.14495166666666</v>
       </c>
       <c r="H32">
-        <v>36.012123771195</v>
+        <v>111.434855</v>
       </c>
       <c r="I32">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674146</v>
       </c>
       <c r="J32">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674145</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.651313400344062</v>
+        <v>0.8690176666666667</v>
       </c>
       <c r="N32">
-        <v>0.651313400344062</v>
+        <v>2.607053</v>
       </c>
       <c r="O32">
-        <v>0.003635889392379604</v>
+        <v>0.004684547990100867</v>
       </c>
       <c r="P32">
-        <v>0.003635889392379604</v>
+        <v>0.004684547990100866</v>
       </c>
       <c r="Q32">
-        <v>23.45517878702824</v>
+        <v>32.27961922581277</v>
       </c>
       <c r="R32">
-        <v>23.45517878702824</v>
+        <v>290.516573032315</v>
       </c>
       <c r="S32">
-        <v>0.0001512412255090718</v>
+        <v>0.0001520265800103617</v>
       </c>
       <c r="T32">
-        <v>0.0001512412255090718</v>
+        <v>0.0001520265800103616</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>36.012123771195</v>
+        <v>37.14495166666666</v>
       </c>
       <c r="H33">
-        <v>36.012123771195</v>
+        <v>111.434855</v>
       </c>
       <c r="I33">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674146</v>
       </c>
       <c r="J33">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674145</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>7.63723659635571</v>
+        <v>7.730875666666667</v>
       </c>
       <c r="N33">
-        <v>7.63723659635571</v>
+        <v>23.192627</v>
       </c>
       <c r="O33">
-        <v>0.04263407986556744</v>
+        <v>0.04167424835552215</v>
       </c>
       <c r="P33">
-        <v>0.04263407986556744</v>
+        <v>0.04167424835552214</v>
       </c>
       <c r="Q33">
-        <v>275.0331095778619</v>
+        <v>287.1630029793428</v>
       </c>
       <c r="R33">
-        <v>275.0331095778619</v>
+        <v>2584.467026814085</v>
       </c>
       <c r="S33">
-        <v>0.001773439670864128</v>
+        <v>0.001352444988370384</v>
       </c>
       <c r="T33">
-        <v>0.001773439670864128</v>
+        <v>0.001352444988370383</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>36.012123771195</v>
+        <v>37.14495166666666</v>
       </c>
       <c r="H34">
-        <v>36.012123771195</v>
+        <v>111.434855</v>
       </c>
       <c r="I34">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674146</v>
       </c>
       <c r="J34">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674145</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>61.8490902464572</v>
+        <v>67.01802199999999</v>
       </c>
       <c r="N34">
-        <v>61.8490902464572</v>
+        <v>201.054066</v>
       </c>
       <c r="O34">
-        <v>0.345266120790129</v>
+        <v>0.3612689963655924</v>
       </c>
       <c r="P34">
-        <v>0.345266120790129</v>
+        <v>0.3612689963655923</v>
       </c>
       <c r="Q34">
-        <v>2227.317093091226</v>
+        <v>2489.381187985603</v>
       </c>
       <c r="R34">
-        <v>2227.317093091226</v>
+        <v>22404.43069187043</v>
       </c>
       <c r="S34">
-        <v>0.01436195263379191</v>
+        <v>0.01172418130784358</v>
       </c>
       <c r="T34">
-        <v>0.01436195263379191</v>
+        <v>0.01172418130784358</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>36.012123771195</v>
+        <v>37.14495166666666</v>
       </c>
       <c r="H35">
-        <v>36.012123771195</v>
+        <v>111.434855</v>
       </c>
       <c r="I35">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674146</v>
       </c>
       <c r="J35">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674145</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>78.6181956033695</v>
+        <v>79.20011933333333</v>
       </c>
       <c r="N35">
-        <v>78.6181956033695</v>
+        <v>237.600358</v>
       </c>
       <c r="O35">
-        <v>0.4388779093003687</v>
+        <v>0.4269381096265194</v>
       </c>
       <c r="P35">
-        <v>0.4388779093003687</v>
+        <v>0.4269381096265193</v>
       </c>
       <c r="Q35">
-        <v>2831.208190736561</v>
+        <v>2941.884604630899</v>
       </c>
       <c r="R35">
-        <v>2831.208190736561</v>
+        <v>26476.96144167809</v>
       </c>
       <c r="S35">
-        <v>0.01825589991559265</v>
+        <v>0.01385532623846833</v>
       </c>
       <c r="T35">
-        <v>0.01825589991559265</v>
+        <v>0.01385532623846832</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>36.012123771195</v>
+        <v>37.14495166666666</v>
       </c>
       <c r="H36">
-        <v>36.012123771195</v>
+        <v>111.434855</v>
       </c>
       <c r="I36">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674146</v>
       </c>
       <c r="J36">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674145</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>26.9218072484062</v>
+        <v>27.17078333333333</v>
       </c>
       <c r="N36">
-        <v>26.9218072484062</v>
+        <v>81.51235</v>
       </c>
       <c r="O36">
-        <v>0.1502881920538714</v>
+        <v>0.1464674923604922</v>
       </c>
       <c r="P36">
-        <v>0.1502881920538714</v>
+        <v>0.1464674923604922</v>
       </c>
       <c r="Q36">
-        <v>969.5114547738588</v>
+        <v>1009.257433662139</v>
       </c>
       <c r="R36">
-        <v>969.5114547738588</v>
+        <v>9083.31690295925</v>
       </c>
       <c r="S36">
-        <v>0.006251502147840133</v>
+        <v>0.004753276515325006</v>
       </c>
       <c r="T36">
-        <v>0.006251502147840133</v>
+        <v>0.004753276515325004</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>36.012123771195</v>
+        <v>37.14495166666666</v>
       </c>
       <c r="H37">
-        <v>36.012123771195</v>
+        <v>111.434855</v>
       </c>
       <c r="I37">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674146</v>
       </c>
       <c r="J37">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674145</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>3.45690420706673</v>
+        <v>3.518443</v>
       </c>
       <c r="N37">
-        <v>3.45690420706673</v>
+        <v>10.555329</v>
       </c>
       <c r="O37">
-        <v>0.01929780859768386</v>
+        <v>0.01896660530177307</v>
       </c>
       <c r="P37">
-        <v>0.01929780859768386</v>
+        <v>0.01896660530177307</v>
       </c>
       <c r="Q37">
-        <v>124.4904621700518</v>
+        <v>130.6923951769217</v>
       </c>
       <c r="R37">
-        <v>124.4904621700518</v>
+        <v>1176.231556592295</v>
       </c>
       <c r="S37">
-        <v>0.000802726350276304</v>
+        <v>0.0006155189667238029</v>
       </c>
       <c r="T37">
-        <v>0.000802726350276304</v>
+        <v>0.0006155189667238027</v>
       </c>
     </row>
   </sheetData>
